--- a/src/main/resources/data/ProjectApplicationList.xlsx
+++ b/src/main/resources/data/ProjectApplicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2179e81e572d34a2/Documents/GitHub/sc2002_hdb_fcsd_group2/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{1368B623-221A-44E1-90C5-C98A8F147433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C052AB7-8106-4509-AEE7-82A2F4BBB75F}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{1368B623-221A-44E1-90C5-C98A8F147433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B4FF54D-D5F4-414D-8D4E-811EED50D5ED}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3255" windowWidth="28335" windowHeight="12225" xr2:uid="{4BACA5CA-9DF2-4209-9E89-B81307AECF76}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
